--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Efna2-Epha5.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Efna2-Epha5.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T6"/>
+  <dimension ref="A1:T11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -540,51 +540,51 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>2.764764333333333</v>
+        <v>3.293025333333333</v>
       </c>
       <c r="H2">
-        <v>8.294293</v>
+        <v>9.879076</v>
       </c>
       <c r="I2">
-        <v>0.2621645059246011</v>
+        <v>0.2347004583311417</v>
       </c>
       <c r="J2">
-        <v>0.2621645059246011</v>
+        <v>0.2347004583311417</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0.01424366666666667</v>
+        <v>0.02440666666666666</v>
       </c>
       <c r="N2">
-        <v>0.042731</v>
+        <v>0.07321999999999999</v>
       </c>
       <c r="O2">
-        <v>1</v>
+        <v>0.9884709884709885</v>
       </c>
       <c r="P2">
-        <v>1</v>
+        <v>0.9884709884709886</v>
       </c>
       <c r="Q2">
-        <v>0.03938038157588889</v>
+        <v>0.08037177163555553</v>
       </c>
       <c r="R2">
-        <v>0.354423434183</v>
+        <v>0.7233459447199999</v>
       </c>
       <c r="S2">
-        <v>0.2621645059246011</v>
+        <v>0.2319945940411777</v>
       </c>
       <c r="T2">
-        <v>0.2621645059246011</v>
+        <v>0.2319945940411777</v>
       </c>
     </row>
     <row r="3" spans="1:20">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B3" t="s">
         <v>25</v>
@@ -593,7 +593,7 @@
         <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E3">
         <v>3</v>
@@ -602,51 +602,51 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>5.925454666666667</v>
+        <v>3.293025333333333</v>
       </c>
       <c r="H3">
-        <v>17.776364</v>
+        <v>9.879076</v>
       </c>
       <c r="I3">
-        <v>0.56187208303298</v>
+        <v>0.2347004583311417</v>
       </c>
       <c r="J3">
-        <v>0.5618720830329801</v>
+        <v>0.2347004583311417</v>
       </c>
       <c r="K3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L3">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M3">
-        <v>0.01424366666666667</v>
+        <v>0.0002846666666666667</v>
       </c>
       <c r="N3">
-        <v>0.042731</v>
+        <v>0.000854</v>
       </c>
       <c r="O3">
-        <v>1</v>
+        <v>0.01152901152901153</v>
       </c>
       <c r="P3">
-        <v>1</v>
+        <v>0.01152901152901153</v>
       </c>
       <c r="Q3">
-        <v>0.08440020112044445</v>
+        <v>0.0009374145448888888</v>
       </c>
       <c r="R3">
-        <v>0.759601810084</v>
+        <v>0.008436730904</v>
       </c>
       <c r="S3">
-        <v>0.56187208303298</v>
+        <v>0.002705864289964023</v>
       </c>
       <c r="T3">
-        <v>0.5618720830329801</v>
+        <v>0.002705864289964023</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B4" t="s">
         <v>25</v>
@@ -658,57 +658,57 @@
         <v>23</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.3772583333333334</v>
+        <v>5.925454666666667</v>
       </c>
       <c r="H4">
-        <v>1.131775</v>
+        <v>17.776364</v>
       </c>
       <c r="I4">
-        <v>0.03577293853651124</v>
+        <v>0.422318927221656</v>
       </c>
       <c r="J4">
-        <v>0.03577293853651124</v>
+        <v>0.422318927221656</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>0.01424366666666667</v>
+        <v>0.02440666666666666</v>
       </c>
       <c r="N4">
-        <v>0.042731</v>
+        <v>0.07321999999999999</v>
       </c>
       <c r="O4">
-        <v>1</v>
+        <v>0.9884709884709885</v>
       </c>
       <c r="P4">
-        <v>1</v>
+        <v>0.9884709884709886</v>
       </c>
       <c r="Q4">
-        <v>0.005373541947222223</v>
+        <v>0.1446205968977778</v>
       </c>
       <c r="R4">
-        <v>0.04836187752500001</v>
+        <v>1.30158537208</v>
       </c>
       <c r="S4">
-        <v>0.03577293853651124</v>
+        <v>0.4174500074407977</v>
       </c>
       <c r="T4">
-        <v>0.03577293853651124</v>
+        <v>0.4174500074407978</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B5" t="s">
         <v>25</v>
@@ -717,7 +717,7 @@
         <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -726,51 +726,51 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.8907996666666668</v>
+        <v>5.925454666666667</v>
       </c>
       <c r="H5">
-        <v>2.672399</v>
+        <v>17.776364</v>
       </c>
       <c r="I5">
-        <v>0.08446870196994463</v>
+        <v>0.422318927221656</v>
       </c>
       <c r="J5">
-        <v>0.08446870196994465</v>
+        <v>0.422318927221656</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>0.01424366666666667</v>
+        <v>0.0002846666666666667</v>
       </c>
       <c r="N5">
-        <v>0.042731</v>
+        <v>0.000854</v>
       </c>
       <c r="O5">
-        <v>1</v>
+        <v>0.01152901152901153</v>
       </c>
       <c r="P5">
-        <v>1</v>
+        <v>0.01152901152901153</v>
       </c>
       <c r="Q5">
-        <v>0.01268825351877778</v>
+        <v>0.001686779428444445</v>
       </c>
       <c r="R5">
-        <v>0.114194281669</v>
+        <v>0.015181014856</v>
       </c>
       <c r="S5">
-        <v>0.08446870196994463</v>
+        <v>0.004868919780858253</v>
       </c>
       <c r="T5">
-        <v>0.08446870196994465</v>
+        <v>0.004868919780858253</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B6" t="s">
         <v>25</v>
@@ -782,52 +782,362 @@
         <v>23</v>
       </c>
       <c r="E6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G6">
-        <v>0.5876370000000001</v>
+        <v>2.186484333333333</v>
       </c>
       <c r="H6">
-        <v>1.762911</v>
+        <v>6.559453</v>
       </c>
       <c r="I6">
-        <v>0.05572177053596303</v>
+        <v>0.1558350827042511</v>
       </c>
       <c r="J6">
-        <v>0.05572177053596303</v>
+        <v>0.1558350827042511</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>0.01424366666666667</v>
+        <v>0.02440666666666666</v>
       </c>
       <c r="N6">
-        <v>0.042731</v>
+        <v>0.07321999999999999</v>
       </c>
       <c r="O6">
-        <v>1</v>
+        <v>0.9884709884709885</v>
       </c>
       <c r="P6">
-        <v>1</v>
+        <v>0.9884709884709886</v>
       </c>
       <c r="Q6">
-        <v>0.008370105549000001</v>
+        <v>0.05336479429555554</v>
       </c>
       <c r="R6">
-        <v>0.07533094994100001</v>
+        <v>0.4802831486599999</v>
       </c>
       <c r="S6">
-        <v>0.05572177053596303</v>
+        <v>0.1540384582391294</v>
       </c>
       <c r="T6">
-        <v>0.05572177053596303</v>
+        <v>0.1540384582391294</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>2.186484333333333</v>
+      </c>
+      <c r="H7">
+        <v>6.559453</v>
+      </c>
+      <c r="I7">
+        <v>0.1558350827042511</v>
+      </c>
+      <c r="J7">
+        <v>0.1558350827042511</v>
+      </c>
+      <c r="K7">
+        <v>1</v>
+      </c>
+      <c r="L7">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M7">
+        <v>0.0002846666666666667</v>
+      </c>
+      <c r="N7">
+        <v>0.000854</v>
+      </c>
+      <c r="O7">
+        <v>0.01152901152901153</v>
+      </c>
+      <c r="P7">
+        <v>0.01152901152901153</v>
+      </c>
+      <c r="Q7">
+        <v>0.0006224192068888889</v>
+      </c>
+      <c r="R7">
+        <v>0.005601772862</v>
+      </c>
+      <c r="S7">
+        <v>0.001796624465121777</v>
+      </c>
+      <c r="T7">
+        <v>0.001796624465121777</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" t="s">
+        <v>23</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>1.169741</v>
+      </c>
+      <c r="H8">
+        <v>3.509223</v>
+      </c>
+      <c r="I8">
+        <v>0.08336976519729013</v>
+      </c>
+      <c r="J8">
+        <v>0.08336976519729013</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>0.02440666666666666</v>
+      </c>
+      <c r="N8">
+        <v>0.07321999999999999</v>
+      </c>
+      <c r="O8">
+        <v>0.9884709884709885</v>
+      </c>
+      <c r="P8">
+        <v>0.9884709884709886</v>
+      </c>
+      <c r="Q8">
+        <v>0.02854947867333333</v>
+      </c>
+      <c r="R8">
+        <v>0.25694530806</v>
+      </c>
+      <c r="S8">
+        <v>0.08240859421315959</v>
+      </c>
+      <c r="T8">
+        <v>0.08240859421315959</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>1.169741</v>
+      </c>
+      <c r="H9">
+        <v>3.509223</v>
+      </c>
+      <c r="I9">
+        <v>0.08336976519729013</v>
+      </c>
+      <c r="J9">
+        <v>0.08336976519729013</v>
+      </c>
+      <c r="K9">
+        <v>1</v>
+      </c>
+      <c r="L9">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M9">
+        <v>0.0002846666666666667</v>
+      </c>
+      <c r="N9">
+        <v>0.000854</v>
+      </c>
+      <c r="O9">
+        <v>0.01152901152901153</v>
+      </c>
+      <c r="P9">
+        <v>0.01152901152901153</v>
+      </c>
+      <c r="Q9">
+        <v>0.0003329862713333333</v>
+      </c>
+      <c r="R9">
+        <v>0.002996876442</v>
+      </c>
+      <c r="S9">
+        <v>0.0009611709841305422</v>
+      </c>
+      <c r="T9">
+        <v>0.0009611709841305422</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" t="s">
+        <v>23</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>1.456052666666666</v>
+      </c>
+      <c r="H10">
+        <v>4.368157999999999</v>
+      </c>
+      <c r="I10">
+        <v>0.1037757665456611</v>
+      </c>
+      <c r="J10">
+        <v>0.1037757665456611</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>0.02440666666666666</v>
+      </c>
+      <c r="N10">
+        <v>0.07321999999999999</v>
+      </c>
+      <c r="O10">
+        <v>0.9884709884709885</v>
+      </c>
+      <c r="P10">
+        <v>0.9884709884709886</v>
+      </c>
+      <c r="Q10">
+        <v>0.03553739208444443</v>
+      </c>
+      <c r="R10">
+        <v>0.3198365287599999</v>
+      </c>
+      <c r="S10">
+        <v>0.1025793345367241</v>
+      </c>
+      <c r="T10">
+        <v>0.1025793345367242</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
+        <v>24</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>1.456052666666666</v>
+      </c>
+      <c r="H11">
+        <v>4.368157999999999</v>
+      </c>
+      <c r="I11">
+        <v>0.1037757665456611</v>
+      </c>
+      <c r="J11">
+        <v>0.1037757665456611</v>
+      </c>
+      <c r="K11">
+        <v>1</v>
+      </c>
+      <c r="L11">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M11">
+        <v>0.0002846666666666667</v>
+      </c>
+      <c r="N11">
+        <v>0.000854</v>
+      </c>
+      <c r="O11">
+        <v>0.01152901152901153</v>
+      </c>
+      <c r="P11">
+        <v>0.01152901152901153</v>
+      </c>
+      <c r="Q11">
+        <v>0.000414489659111111</v>
+      </c>
+      <c r="R11">
+        <v>0.003730406932</v>
+      </c>
+      <c r="S11">
+        <v>0.001196432008936936</v>
+      </c>
+      <c r="T11">
+        <v>0.001196432008936936</v>
       </c>
     </row>
   </sheetData>
